--- a/21_monthly_sales_trends.xlsx
+++ b/21_monthly_sales_trends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\OneDrive\Dokumenty\electrical_wholesale_database\query_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9DD197-7D4F-41AA-BC78-190A969013EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4243ED-FD45-4EF0-9E54-E0E84FAC90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -397,6 +397,21 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>monthly_sales_trends!$A$2:$A$39</c:f>
@@ -686,7 +701,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1723,8 +1738,8 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
